--- a/Costes/costes.xlsx
+++ b/Costes/costes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\Desktop\UVA\MASTER\ASIGNATURAS\SEGUNDO CUATRIMESTRE\TALLER DE PROYECTOS II\TallerDeProyectos2\Costes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABE253D-72F6-4490-9E26-92B05606957C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EFBAF9-A790-425E-BADE-D030851A39C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>PRECIO TOTAL</t>
   </si>
@@ -60,9 +60,6 @@
     <t>CORE</t>
   </si>
   <si>
-    <t>ALQUILER TORRES TELEFONÍA (1AÑO)</t>
-  </si>
-  <si>
     <t>FIBRA</t>
   </si>
   <si>
@@ -79,6 +76,54 @@
   </si>
   <si>
     <t>PRECIO TOTAL OPEX</t>
+  </si>
+  <si>
+    <t>ALQUILER TORRES TELEFONÍA (1 AÑO)</t>
+  </si>
+  <si>
+    <t>BENEFICIOS</t>
+  </si>
+  <si>
+    <t>USUARIOS</t>
+  </si>
+  <si>
+    <t>TARIFA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Detección</t>
+  </si>
+  <si>
+    <t>Detección + Control</t>
+  </si>
+  <si>
+    <t>AMORTIZACIÓN</t>
+  </si>
+  <si>
+    <t>BENEFICIOS MENSUALES</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>PARTIDA</t>
+  </si>
+  <si>
+    <t>AMORTIZACIÓN TOTAL</t>
+  </si>
+  <si>
+    <t>INGRESOS MENSUALES</t>
+  </si>
+  <si>
+    <t>DINERO</t>
+  </si>
+  <si>
+    <t>TABLA DE COSTES ODITECH AI SOLUTIONS</t>
   </si>
 </sst>
 </file>
@@ -88,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +156,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="22"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +190,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -291,14 +356,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,21 +369,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -346,9 +392,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,8 +401,73 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -369,8 +477,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFCC00FF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFCC99FF"/>
     </mruColors>
   </colors>
@@ -383,6 +492,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2290672</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DF8520-0F84-F9E0-6D4B-F08876D918C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762002" y="136690"/>
+          <a:ext cx="2138270" cy="754850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,218 +824,347 @@
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6"/>
+      <c r="G6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12">
+        <v>15000</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <f>C8*D8</f>
+        <v>105000</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="14">
+        <v>5</v>
+      </c>
+      <c r="I8" s="20">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="8">
+        <f>I8*H8</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>8319.15</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" ref="E9:E12" si="0">C9*D9</f>
+        <v>58234.049999999996</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="14">
         <v>15</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="19">
-        <v>15000</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="I9" s="20">
+        <v>1500</v>
+      </c>
+      <c r="J9" s="8">
+        <f>I9*H9</f>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="14">
-        <f>C7*D7</f>
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="20">
-        <v>8319.15</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C10" s="14">
+        <v>1571.39</v>
+      </c>
+      <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="16">
-        <f t="shared" ref="E8:E11" si="0">C8*D8</f>
-        <v>58234.049999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1571.39</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>10999.730000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="G10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="44">
+        <f>J8+J9</f>
+        <v>32500</v>
+      </c>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C11" s="13">
         <v>3697.4</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>3697.4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="15">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="1">
         <f>184*7</f>
         <v>1288</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>7728</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8">
-        <f>E7+E8+E9+E10+E11</f>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="44">
+        <f>E8+E9+E10+E11+E12</f>
         <v>185659.18</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15"/>
+      <c r="G15" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E16" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C17" s="10">
         <v>0.71</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D17" s="16">
         <f>1*24*30*6</f>
         <v>4320</v>
       </c>
-      <c r="E16" s="20">
-        <f>C16*D16</f>
+      <c r="E17" s="13">
+        <f>C17*D17</f>
         <v>3067.2</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="33" t="s">
+      <c r="G17" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="36">
+        <f>C13</f>
+        <v>185659.18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C18" s="13">
         <v>15.65</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D18" s="20">
         <v>345</v>
       </c>
-      <c r="E17" s="21">
-        <f>C17*D17</f>
+      <c r="E18" s="14">
+        <f>C18*D18</f>
         <v>5399.25</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="26">
-        <f>E16+E17</f>
+      <c r="G18" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="38">
+        <f>C19</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10">
-        <f>E7+E8+E9+E10+E11+E16+E17</f>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="48">
+        <f>E17+E18</f>
+        <v>8466.4500000000007</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="G19" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="37">
+        <f>H10</f>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="35">
+        <f>H19-H18</f>
+        <v>24033.55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="49">
+        <f>E8+E9+E10+E11+E12+E17+E18</f>
         <v>194125.63</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="35"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="G21" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="43" t="str">
+        <f>_xlfn.CONCAT(ROUNDUP(H17/H20,0)," MESES ")</f>
+        <v xml:space="preserve">8 MESES </v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C18:E18"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:J4"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Costes/costes.xlsx
+++ b/Costes/costes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\Desktop\UVA\MASTER\ASIGNATURAS\SEGUNDO CUATRIMESTRE\TALLER DE PROYECTOS II\TallerDeProyectos2\Costes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EFBAF9-A790-425E-BADE-D030851A39C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938BF563-9FA2-4593-80B9-6DA54BC30FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +202,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -270,15 +276,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -356,9 +353,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,17 +368,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,68 +389,77 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,12 +467,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,13 +499,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
+      <xdr:colOff>129542</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>136690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2290672</xdr:colOff>
+      <xdr:colOff>2267812</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -536,7 +536,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762002" y="136690"/>
+          <a:off x="739142" y="136690"/>
           <a:ext cx="2138270" cy="754850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -812,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J21"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,57 +830,104 @@
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6"/>
-      <c r="G6" s="31" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
@@ -893,7 +940,7 @@
       <c r="E7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="15" t="s">
         <v>20</v>
       </c>
@@ -906,8 +953,12 @@
       <c r="J7" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
       <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
@@ -921,7 +972,8 @@
         <f>C8*D8</f>
         <v>105000</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="29" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="14">
@@ -934,8 +986,12 @@
         <f>I8*H8</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
       <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
@@ -949,7 +1005,8 @@
         <f t="shared" ref="E9:E12" si="0">C9*D9</f>
         <v>58234.049999999996</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="14">
@@ -962,8 +1019,12 @@
         <f>I9*H9</f>
         <v>22500</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -977,17 +1038,22 @@
         <f t="shared" si="0"/>
         <v>10999.730000000001</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="48">
         <f>J8+J9</f>
         <v>32500</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="45"/>
       <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
@@ -1001,8 +1067,17 @@
         <f t="shared" si="0"/>
         <v>3697.4</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="45"/>
       <c r="B12" s="24" t="s">
         <v>11</v>
       </c>
@@ -1017,34 +1092,71 @@
         <f t="shared" si="0"/>
         <v>7728</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="45"/>
       <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="48">
         <f>E8+E9+E10+E11+E12</f>
         <v>185659.18</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="F15"/>
-      <c r="G15" s="46" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H15" s="28"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="45"/>
       <c r="B16" s="19" t="s">
         <v>3</v>
       </c>
@@ -1057,17 +1169,21 @@
       <c r="E16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="17" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
       <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
@@ -1082,15 +1198,22 @@
         <f>C17*D17</f>
         <v>3067.2</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="31">
         <f>C13</f>
         <v>185659.18</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="45"/>
       <c r="B18" s="25" t="s">
         <v>9</v>
       </c>
@@ -1104,15 +1227,22 @@
         <f>C18*D18</f>
         <v>5399.25</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="F18" s="45"/>
+      <c r="G18" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="33">
         <f>C19</f>
         <v>8466.4500000000007</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="45"/>
       <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
@@ -1120,48 +1250,181 @@
         <f>E17+E18</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="G19" s="41" t="s">
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="32">
         <f>H10</f>
         <v>32500</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="41" t="s">
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="30">
         <f>H19-H18</f>
         <v>24033.55</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="45"/>
       <c r="B21" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="51">
         <f>E8+E9+E10+E11+E12+E17+E18</f>
         <v>194125.63</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="G21" s="42" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="43" t="str">
+      <c r="H21" s="38" t="str">
         <f>_xlfn.CONCAT(ROUNDUP(H17/H20,0)," MESES ")</f>
         <v xml:space="preserve">8 MESES </v>
       </c>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:J4"/>
+  <mergeCells count="7">
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:J5"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Costes/costes.xlsx
+++ b/Costes/costes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\Desktop\UVA\MASTER\ASIGNATURAS\SEGUNDO CUATRIMESTRE\TALLER DE PROYECTOS II\TallerDeProyectos2\Costes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938BF563-9FA2-4593-80B9-6DA54BC30FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA8BDED-90FA-4F99-AC5A-08FD70723791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>PRECIO TOTAL</t>
   </si>
@@ -120,10 +120,25 @@
     <t>INGRESOS MENSUALES</t>
   </si>
   <si>
-    <t>DINERO</t>
-  </si>
-  <si>
-    <t>TABLA DE COSTES ODITECH AI SOLUTIONS</t>
+    <t>SOBRECOSTES</t>
+  </si>
+  <si>
+    <t>INGRESOS ESTIMADOS 1</t>
+  </si>
+  <si>
+    <t>INGRESOS ESTIMADOS 2</t>
+  </si>
+  <si>
+    <t>INGRESOS ESTIMADOS 3</t>
+  </si>
+  <si>
+    <t>ESTIMACION 1</t>
+  </si>
+  <si>
+    <t>ESTIMACION 2</t>
+  </si>
+  <si>
+    <t>ESTIMACION 3</t>
   </si>
 </sst>
 </file>
@@ -157,9 +172,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="22"/>
-      <color rgb="FF00B0F0"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -348,25 +361,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,12 +412,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -425,30 +432,18 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +463,37 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -498,16 +524,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>129542</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>136690</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171761</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2267812</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>720514</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -536,8 +562,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="739142" y="136690"/>
-          <a:ext cx="2138270" cy="754850"/>
+          <a:off x="5429561" y="3642360"/>
+          <a:ext cx="3749153" cy="1264920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,622 +838,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="40" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="15" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="15" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="21" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12">
+      <c r="B4" s="9">
         <v>15000</v>
       </c>
-      <c r="D8" s="16">
+      <c r="C4" s="13">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
-        <f>C8*D8</f>
+      <c r="D4" s="4">
+        <f>B4*C4</f>
         <v>105000</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="29" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="14">
+      <c r="G4" s="11">
         <v>5</v>
       </c>
-      <c r="I8" s="20">
+      <c r="H4" s="17">
         <v>2000</v>
       </c>
-      <c r="J8" s="8">
-        <f>I8*H8</f>
+      <c r="I4" s="5">
+        <f>H4*G4</f>
         <v>10000</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="22" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13">
+      <c r="B5" s="10">
         <v>8319.15</v>
       </c>
-      <c r="D9" s="11">
+      <c r="C5" s="8">
         <v>7</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" ref="E9:E12" si="0">C9*D9</f>
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:D8" si="0">B5*C5</f>
         <v>58234.049999999996</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="29" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="14">
+      <c r="G5" s="11">
         <v>15</v>
       </c>
-      <c r="I9" s="20">
+      <c r="H5" s="17">
         <v>1500</v>
       </c>
-      <c r="J9" s="8">
-        <f>I9*H9</f>
+      <c r="I5" s="5">
+        <f>H5*G5</f>
         <v>22500</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="23" t="s">
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14">
+      <c r="B6" s="11">
         <v>1571.39</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C6" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="8">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>10999.730000000001</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="29" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="48">
-        <f>J8+J9</f>
+      <c r="G6" s="39">
+        <f>I4+I5</f>
         <v>32500</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="22" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13">
+      <c r="B7" s="10">
         <v>3697.4</v>
       </c>
-      <c r="D11" s="11">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>3697.4</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="24" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C8" s="1">
         <f>184*7</f>
         <v>1288</v>
       </c>
-      <c r="E12" s="8">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>7728</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="25" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="48">
+        <f>0.2*SUM(D4:D8)</f>
+        <v>37131.836000000003</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48">
-        <f>E8+E9+E10+E11+E12</f>
-        <v>185659.18</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="3" t="s">
+      <c r="B10" s="39">
+        <f>D4+D5+D6+D7+D8+D9</f>
+        <v>222791.016</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="5">
+        <f>H10*G10</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="11">
+        <v>15</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="5">
+        <f>H11*G11</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="19" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="39">
+        <f>I10+I11</f>
+        <v>20000</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="24" t="s">
+      <c r="E13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10">
+      <c r="B14" s="7">
         <v>0.71</v>
       </c>
-      <c r="D17" s="16">
+      <c r="C14" s="13">
         <f>1*24*30*6</f>
         <v>4320</v>
       </c>
-      <c r="E17" s="13">
-        <f>C17*D17</f>
+      <c r="D14" s="10">
+        <f>B14*C14</f>
         <v>3067.2</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="34" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10">
+        <v>15.65</v>
+      </c>
+      <c r="C15" s="17">
+        <v>345</v>
+      </c>
+      <c r="D15" s="11">
+        <f>B15*C15</f>
+        <v>5399.25</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="39">
+        <f>D14+D15</f>
+        <v>8466.4500000000007</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="11">
+        <v>5</v>
+      </c>
+      <c r="H16" s="17">
+        <v>750</v>
+      </c>
+      <c r="I16" s="5">
+        <f>H16*G16</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="11">
+        <v>15</v>
+      </c>
+      <c r="H17" s="17">
+        <v>500</v>
+      </c>
+      <c r="I17" s="5">
+        <f>H17*G17</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="42">
+        <f>D4+D5+D6+D7+D8+D14+D15</f>
+        <v>194125.63</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="39">
+        <f>I16+I17</f>
+        <v>11250</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="31">
-        <f>C13</f>
-        <v>185659.18</v>
-      </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13">
-        <v>15.65</v>
-      </c>
-      <c r="D18" s="20">
-        <v>345</v>
-      </c>
-      <c r="E18" s="14">
-        <f>C18*D18</f>
-        <v>5399.25</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="35" t="s">
+      <c r="B23" s="26">
+        <f>B10</f>
+        <v>222791.016</v>
+      </c>
+      <c r="C23" s="57">
+        <f>B10</f>
+        <v>222791.016</v>
+      </c>
+      <c r="D23" s="54">
+        <f>B10</f>
+        <v>222791.016</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="33">
-        <f>C19</f>
+      <c r="B24" s="28">
+        <f>B16</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="48">
-        <f>E17+E18</f>
+      <c r="C24" s="58">
+        <f>B16</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="36" t="s">
+      <c r="D24" s="56">
+        <f>B16</f>
+        <v>8466.4500000000007</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="32">
-        <f>H10</f>
+      <c r="B25" s="27">
+        <f>G6</f>
         <v>32500</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="36" t="s">
+      <c r="C25" s="59">
+        <f>G12</f>
+        <v>20000</v>
+      </c>
+      <c r="D25" s="55">
+        <f>G18</f>
+        <v>11250</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="30">
-        <f>H19-H18</f>
+      <c r="B26" s="25">
+        <f>B25-B24</f>
         <v>24033.55</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="51">
-        <f>E8+E9+E10+E11+E12+E17+E18</f>
-        <v>194125.63</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="37" t="s">
+      <c r="C26" s="25">
+        <f t="shared" ref="C26:D26" si="1">C25-C24</f>
+        <v>11533.55</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="1"/>
+        <v>2783.5499999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="38" t="str">
-        <f>_xlfn.CONCAT(ROUNDUP(H17/H20,0)," MESES ")</f>
-        <v xml:space="preserve">8 MESES </v>
-      </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="B27" s="33" t="str">
+        <f>_xlfn.CONCAT(ROUNDUP(B23/B26,0)," MESES ")</f>
+        <v xml:space="preserve">10 MESES </v>
+      </c>
+      <c r="C27" s="33" t="str">
+        <f t="shared" ref="C27:D27" si="2">_xlfn.CONCAT(ROUNDUP(C23/C26,0)," MESES ")</f>
+        <v xml:space="preserve">20 MESES </v>
+      </c>
+      <c r="D27" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">81 MESES </v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:J5"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C19:E19"/>
+  <mergeCells count="13">
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;22&amp;U&amp;K00B0F0TABLA DE COSTES ODITECH AI SOLUTIONS</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Costes/costes.xlsx
+++ b/Costes/costes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\Desktop\UVA\MASTER\ASIGNATURAS\SEGUNDO CUATRIMESTRE\TALLER DE PROYECTOS II\TallerDeProyectos2\Costes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA8BDED-90FA-4F99-AC5A-08FD70723791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B666FE0-B4F2-4777-8D1D-0419029F939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>PRECIO TOTAL</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>FIBRA</t>
-  </si>
-  <si>
-    <t>PRECIO FINAL</t>
   </si>
   <si>
     <t>Alquiler de Servicios / OPEX</t>
@@ -375,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,7 +408,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -436,64 +432,55 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -524,16 +511,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171761</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>58783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>720514</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>662214</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,8 +549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5429561" y="3642360"/>
-          <a:ext cx="3749153" cy="1264920"/>
+          <a:off x="6122618" y="3324497"/>
+          <a:ext cx="3003239" cy="1004633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="40" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="84" zoomScaleNormal="100" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,30 +844,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -895,23 +882,23 @@
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9">
         <v>15000</v>
@@ -923,9 +910,9 @@
         <f>B4*C4</f>
         <v>105000</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="24" t="s">
-        <v>22</v>
+      <c r="E4" s="33"/>
+      <c r="F4" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="11">
         <v>5</v>
@@ -952,9 +939,9 @@
         <f t="shared" ref="D5:D8" si="0">B5*C5</f>
         <v>58234.049999999996</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="24" t="s">
-        <v>23</v>
+      <c r="E5" s="33"/>
+      <c r="F5" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="11">
         <v>15</v>
@@ -981,16 +968,16 @@
         <f t="shared" si="0"/>
         <v>10999.730000000001</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="39">
+      <c r="E6" s="33"/>
+      <c r="F6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="45">
         <f>I4+I5</f>
         <v>32500</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
@@ -1006,11 +993,11 @@
         <f t="shared" si="0"/>
         <v>3697.4</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
@@ -1027,53 +1014,53 @@
         <f t="shared" si="0"/>
         <v>7728</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="49">
+        <v>30</v>
+      </c>
+      <c r="B9" s="51">
         <v>0.2</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="48">
+      <c r="C9" s="52"/>
+      <c r="D9" s="35">
         <f>0.2*SUM(D4:D8)</f>
         <v>37131.836000000003</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="39">
+        <v>14</v>
+      </c>
+      <c r="B10" s="45">
         <f>D4+D5+D6+D7+D8+D9</f>
         <v>222791.016</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="24" t="s">
-        <v>22</v>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="11">
         <v>5</v>
@@ -1087,13 +1074,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="24" t="s">
-        <v>23</v>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="11">
         <v>15</v>
@@ -1107,22 +1094,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="39">
+      <c r="A12" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="45">
         <f>I10+I11</f>
         <v>20000</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -1137,9 +1124,9 @@
       <c r="D13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -1156,13 +1143,13 @@
         <f>B14*C14</f>
         <v>3067.2</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
@@ -1178,33 +1165,33 @@
         <f>B15*C15</f>
         <v>5399.25</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="39">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45">
         <f>D14+D15</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="24" t="s">
-        <v>22</v>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="G16" s="11">
         <v>5</v>
@@ -1218,13 +1205,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="24" t="s">
-        <v>23</v>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="G17" s="11">
         <v>15</v>
@@ -1238,204 +1225,183 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="42">
-        <f>D4+D5+D6+D7+D8+D14+D15</f>
-        <v>194125.63</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="39">
+      <c r="A18" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="45">
         <f>I16+I17</f>
         <v>11250</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="A19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="26">
+      <c r="A20" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="25">
         <f>B10</f>
         <v>222791.016</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C20" s="39">
         <f>B10</f>
         <v>222791.016</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D20" s="36">
         <f>B10</f>
         <v>222791.016</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="28">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="27">
         <f>B16</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C21" s="40">
         <f>B16</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D21" s="38">
         <f>B16</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="27">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="26">
         <f>G6</f>
         <v>32500</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C22" s="41">
         <f>G12</f>
         <v>20000</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D22" s="37">
         <f>G18</f>
         <v>11250</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="25">
-        <f>B25-B24</f>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="24">
+        <f>B22-B21</f>
         <v>24033.55</v>
       </c>
-      <c r="C26" s="25">
-        <f t="shared" ref="C26:D26" si="1">C25-C24</f>
+      <c r="C23" s="24">
+        <f t="shared" ref="C23:D23" si="1">C22-C21</f>
         <v>11533.55</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D23" s="24">
         <f t="shared" si="1"/>
         <v>2783.5499999999993</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="33" t="str">
-        <f>_xlfn.CONCAT(ROUNDUP(B23/B26,0)," MESES ")</f>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="32" t="str">
+        <f>_xlfn.CONCAT(ROUNDUP(B20/B23,0)," MESES ")</f>
         <v xml:space="preserve">10 MESES </v>
       </c>
-      <c r="C27" s="33" t="str">
-        <f t="shared" ref="C27:D27" si="2">_xlfn.CONCAT(ROUNDUP(C23/C26,0)," MESES ")</f>
+      <c r="C24" s="32" t="str">
+        <f t="shared" ref="C24:D24" si="2">_xlfn.CONCAT(ROUNDUP(C20/C23,0)," MESES ")</f>
         <v xml:space="preserve">20 MESES </v>
       </c>
-      <c r="D27" s="33" t="str">
+      <c r="D24" s="32" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">81 MESES </v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Negrita"&amp;22&amp;U&amp;K00B0F0TABLA DE COSTES ODITECH AI SOLUTIONS</oddHeader>
-  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Costes/costes.xlsx
+++ b/Costes/costes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\Desktop\UVA\MASTER\ASIGNATURAS\SEGUNDO CUATRIMESTRE\TALLER DE PROYECTOS II\TallerDeProyectos2\Costes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/Costes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B666FE0-B4F2-4777-8D1D-0419029F939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -828,22 +839,22 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="84" zoomScaleNormal="100" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -854,7 +865,7 @@
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>13</v>
       </c>
@@ -869,7 +880,7 @@
       <c r="H2" s="43"/>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -896,7 +907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -925,7 +936,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -954,7 +965,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -979,7 +990,7 @@
       <c r="H6" s="46"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
@@ -999,7 +1010,7 @@
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>11</v>
       </c>
@@ -1022,7 +1033,7 @@
       <c r="H8" s="43"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>30</v>
       </c>
@@ -1048,7 +1059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1084,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -1093,7 +1104,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1122,7 @@
       <c r="H12" s="46"/>
       <c r="I12" s="47"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1139,7 @@
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1162,7 @@
       <c r="H14" s="43"/>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +1215,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -1224,7 +1235,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +1253,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1272,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>25</v>
       </c>
@@ -1281,7 +1292,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +1312,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>29</v>
       </c>
@@ -1321,7 +1332,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1352,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>28</v>
       </c>
@@ -1361,19 +1372,19 @@
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1386,18 +1397,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Costes/costes.xlsx
+++ b/Costes/costes.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/Costes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B666FE0-B4F2-4777-8D1D-0419029F939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{5B666FE0-B4F2-4777-8D1D-0419029F939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A13F5CC6-64A9-9F42-9C86-0B0D0BFC52F8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>PRECIO TOTAL</t>
   </si>
@@ -147,6 +150,12 @@
   </si>
   <si>
     <t>ESTIMACION 3</t>
+  </si>
+  <si>
+    <t>ESTIMACION 4</t>
+  </si>
+  <si>
+    <t>ESTIMACION 5</t>
   </si>
 </sst>
 </file>
@@ -230,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -370,10 +379,160 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -383,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,21 +583,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +612,12 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,20 +627,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,59 +690,46 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>198975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>58783</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>662214</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>156273</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DF8520-0F84-F9E0-6D4B-F08876D918C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6122618" y="3324497"/>
-          <a:ext cx="3003239" cy="1004633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="I12">
+            <v>975</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>39301.352168949772</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14">
+            <v>24115.374714611873</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15">
+            <v>12057.687357305937</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16">
+            <v>8929.3972602739723</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -836,18 +995,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="84" zoomScaleNormal="100" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A9" zoomScale="163" zoomScaleNormal="100" zoomScalePageLayoutView="163" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -855,30 +1012,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -893,7 +1050,7 @@
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="12" t="s">
         <v>19</v>
       </c>
@@ -921,7 +1078,7 @@
         <f>B4*C4</f>
         <v>105000</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="23" t="s">
         <v>21</v>
       </c>
@@ -950,7 +1107,7 @@
         <f t="shared" ref="D5:D8" si="0">B5*C5</f>
         <v>58234.049999999996</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="23" t="s">
         <v>22</v>
       </c>
@@ -979,16 +1136,16 @@
         <f t="shared" si="0"/>
         <v>10999.730000000001</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="40">
         <f>I4+I5</f>
         <v>32500</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -1004,11 +1161,11 @@
         <f t="shared" si="0"/>
         <v>3697.4</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -1025,27 +1182,27 @@
         <f t="shared" si="0"/>
         <v>7728</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="42" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="43">
         <v>0.2</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="35">
+      <c r="C9" s="44"/>
+      <c r="D9" s="30">
         <f>0.2*SUM(D4:D8)</f>
         <v>37131.836000000003</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1063,13 +1220,13 @@
       <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="40">
         <f>D4+D5+D6+D7+D8+D9</f>
         <v>222791.016</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="33"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="23" t="s">
         <v>21</v>
       </c>
@@ -1085,11 +1242,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="23" t="s">
         <v>22</v>
       </c>
@@ -1105,22 +1262,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="40">
         <f>I10+I11</f>
         <v>20000</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -1135,9 +1292,9 @@
       <c r="D13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="E13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
@@ -1154,13 +1311,13 @@
         <f>B14*C14</f>
         <v>3067.2</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="42" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
@@ -1176,7 +1333,7 @@
         <f>B15*C15</f>
         <v>5399.25</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1194,13 +1351,13 @@
       <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="40">
         <f>D14+D15</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="33"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="23" t="s">
         <v>21</v>
       </c>
@@ -1216,11 +1373,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="23" t="s">
         <v>22</v>
       </c>
@@ -1236,164 +1393,208 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="33"/>
       <c r="F18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="40">
         <f>I16+I17</f>
         <v>11250</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="E25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B26" s="25">
         <f>B10</f>
         <v>222791.016</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C26" s="34">
         <f>B10</f>
         <v>222791.016</v>
       </c>
-      <c r="D20" s="36">
-        <f>B10</f>
+      <c r="D26" s="31">
+        <f>$B$10</f>
         <v>222791.016</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="E26" s="31">
+        <f>$B$10</f>
+        <v>222791.016</v>
+      </c>
+      <c r="F26" s="54">
+        <f>$B$10</f>
+        <v>222791.016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B27" s="27">
         <f>B16</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C27" s="35">
         <f>B16</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="D21" s="38">
-        <f>B16</f>
+      <c r="D27" s="33">
+        <f>$B$16</f>
         <v>8466.4500000000007</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="E27" s="33">
+        <f>$B$16</f>
+        <v>8466.4500000000007</v>
+      </c>
+      <c r="F27" s="56">
+        <f>$B$16</f>
+        <v>8466.4500000000007</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="26">
-        <f>G6</f>
-        <v>32500</v>
-      </c>
-      <c r="C22" s="41">
-        <f>G12</f>
-        <v>20000</v>
-      </c>
-      <c r="D22" s="37">
-        <f>G18</f>
-        <v>11250</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="B28" s="26">
+        <f>[1]Hoja1!$I$12</f>
+        <v>975</v>
+      </c>
+      <c r="C28" s="36">
+        <f>[1]Hoja1!$I$13</f>
+        <v>39301.352168949772</v>
+      </c>
+      <c r="D28" s="32">
+        <f>[1]Hoja1!$I$14</f>
+        <v>24115.374714611873</v>
+      </c>
+      <c r="E28" s="32">
+        <f>[1]Hoja1!$I$15</f>
+        <v>12057.687357305937</v>
+      </c>
+      <c r="F28" s="58">
+        <f>[1]Hoja1!$I$16</f>
+        <v>8929.3972602739723</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="24">
-        <f>B22-B21</f>
-        <v>24033.55</v>
-      </c>
-      <c r="C23" s="24">
-        <f t="shared" ref="C23:D23" si="1">C22-C21</f>
-        <v>11533.55</v>
-      </c>
-      <c r="D23" s="24">
+      <c r="B29" s="24">
+        <f>B28-B27</f>
+        <v>-7491.4500000000007</v>
+      </c>
+      <c r="C29" s="24">
+        <f t="shared" ref="C29:D29" si="1">C28-C27</f>
+        <v>30834.902168949771</v>
+      </c>
+      <c r="D29" s="24">
         <f t="shared" si="1"/>
-        <v>2783.5499999999993</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+        <v>15648.924714611872</v>
+      </c>
+      <c r="E29" s="24">
+        <f t="shared" ref="E29:F29" si="2">E28-E27</f>
+        <v>3591.2373573059358</v>
+      </c>
+      <c r="F29" s="59">
+        <f t="shared" si="2"/>
+        <v>462.94726027397155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="32" t="str">
-        <f>_xlfn.CONCAT(ROUNDUP(B20/B23,0)," MESES ")</f>
-        <v xml:space="preserve">10 MESES </v>
-      </c>
-      <c r="C24" s="32" t="str">
-        <f t="shared" ref="C24:D24" si="2">_xlfn.CONCAT(ROUNDUP(C20/C23,0)," MESES ")</f>
-        <v xml:space="preserve">20 MESES </v>
-      </c>
-      <c r="D24" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">81 MESES </v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="B30" s="61" t="str">
+        <f>_xlfn.CONCAT(ROUNDUP(B26/B29,0)," MESES ")</f>
+        <v xml:space="preserve">-30 MESES </v>
+      </c>
+      <c r="C30" s="61" t="str">
+        <f t="shared" ref="C30:D30" si="3">_xlfn.CONCAT(ROUNDUP(C26/C29,0)," MESES ")</f>
+        <v xml:space="preserve">8 MESES </v>
+      </c>
+      <c r="D30" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">15 MESES </v>
+      </c>
+      <c r="E30" s="61" t="str">
+        <f t="shared" ref="E30:F30" si="4">_xlfn.CONCAT(ROUNDUP(E26/E29,0)," MESES ")</f>
+        <v xml:space="preserve">63 MESES </v>
+      </c>
+      <c r="F30" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">482 MESES </v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1402,7 +1603,7 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G6:I6"/>
@@ -1413,6 +1614,5 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>